--- a/NST-EST2023-POP.xlsx
+++ b/NST-EST2023-POP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE566E0B-6FCA-E34E-8BB5-DBB1A5B60838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA26C91-07CD-AD41-A0D5-11F061C3059E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19560" yWindow="3960" windowWidth="41060" windowHeight="25240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16540" yWindow="3960" windowWidth="41060" windowHeight="25240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NST-EST2023" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>States</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Pop</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -539,8 +542,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2023</v>
+      <c r="B1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
